--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D8795-5D2C-4BFA-AC80-5B657414472D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55725F70-C8D3-4268-B701-797B34989731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -136,15 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tow1_2</t>
-  </si>
-  <si>
-    <t>Tow1_3</t>
-  </si>
-  <si>
-    <t>Tow1_4</t>
-  </si>
-  <si>
     <t>towerId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -155,37 +135,10 @@
     <t>Tow2_1</t>
   </si>
   <si>
-    <t>Tow2_2</t>
-  </si>
-  <si>
-    <t>Tow2_3</t>
-  </si>
-  <si>
-    <t>Tow2_4</t>
-  </si>
-  <si>
     <t>Tow3_1</t>
   </si>
   <si>
-    <t>Tow3_2</t>
-  </si>
-  <si>
-    <t>Tow3_3</t>
-  </si>
-  <si>
-    <t>Tow3_4</t>
-  </si>
-  <si>
     <t>Tow4_1</t>
-  </si>
-  <si>
-    <t>Tow4_2</t>
-  </si>
-  <si>
-    <t>Tow4_3</t>
-  </si>
-  <si>
-    <t>Tow4_4</t>
   </si>
   <si>
     <t>权重值</t>
@@ -201,6 +154,18 @@
   <si>
     <t>BuyTowerRefreshRule</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow5_1</t>
+  </si>
+  <si>
+    <t>Tow6_1</t>
+  </si>
+  <si>
+    <t>Tow7_1</t>
+  </si>
+  <si>
+    <t>Tow8_1</t>
   </si>
 </sst>
 </file>
@@ -345,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -366,6 +331,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -643,25 +609,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1"/>
@@ -698,7 +664,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,7 +693,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -743,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3"/>
@@ -764,7 +730,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -795,7 +761,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,10 +777,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -834,9 +800,9 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -848,190 +814,91 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6">
+        <v>22</v>
+      </c>
+      <c r="H10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="6">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55725F70-C8D3-4268-B701-797B34989731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645AE10-25DA-4658-8785-FADCCDC59467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -166,6 +177,13 @@
   </si>
   <si>
     <t>Tow8_1</t>
+  </si>
+  <si>
+    <t>TowCallMonster_1</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -310,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -331,7 +349,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -609,25 +626,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="29.375" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -664,7 +681,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +710,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -730,7 +747,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -761,7 +778,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -800,7 +817,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -820,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="E7" s="7"/>
@@ -832,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
@@ -844,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="E9" s="7"/>
@@ -856,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="E10" s="7"/>
@@ -864,11 +881,11 @@
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="E11" s="7"/>
@@ -876,11 +893,11 @@
       <c r="G11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="E12" s="7"/>
@@ -888,17 +905,126 @@
       <c r="G12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="1">B14&amp;"_"&amp;C14</f>
+        <v>BuyTowerRefreshRule_test</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645AE10-25DA-4658-8785-FADCCDC59467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD09D54-7107-4F94-9DB7-91514AF0AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -183,6 +172,27 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowCallMonster_2</t>
+  </si>
+  <si>
+    <t>TowCallMonster_3</t>
+  </si>
+  <si>
+    <t>TowCallMonster_4</t>
+  </si>
+  <si>
+    <t>TutorialFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow2_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -626,25 +636,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,7 +691,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -710,7 +720,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -747,7 +757,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -778,7 +788,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -817,7 +827,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -837,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="E7" s="7"/>
@@ -849,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
@@ -861,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="E9" s="7"/>
@@ -873,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="E10" s="7"/>
@@ -885,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="E11" s="7"/>
@@ -897,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="E12" s="7"/>
@@ -909,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -918,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
@@ -938,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="E15" s="7"/>
@@ -950,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="E16" s="7"/>
@@ -962,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="E17" s="7"/>
@@ -974,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="E18" s="7"/>
@@ -986,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="E19" s="7"/>
@@ -998,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="E20" s="7"/>
@@ -1010,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>25</v>
@@ -1019,13 +1029,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="6">
         <v>10</v>
       </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23" si="2">B23&amp;"_"&amp;C23</f>
+        <v>BuyTowerRefreshRule_PVP</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ref="D35" si="3">B35&amp;"_"&amp;C35</f>
+        <v>BuyTowerRefreshRule_TutorialFirst</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD09D54-7107-4F94-9DB7-91514AF0AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E47405-F640-475C-9035-EB63BDC8FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -194,6 +205,98 @@
   <si>
     <t>Tow2_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>无限模式</t>
+  </si>
+  <si>
+    <t>24卡版本1.0</t>
+  </si>
+  <si>
+    <t>Tow9_1</t>
+  </si>
+  <si>
+    <t>Tow10_1</t>
+  </si>
+  <si>
+    <t>Tow11_1</t>
+  </si>
+  <si>
+    <t>Tow12_1</t>
+  </si>
+  <si>
+    <t>Tow13_1</t>
+  </si>
+  <si>
+    <t>Tow14_1</t>
+  </si>
+  <si>
+    <t>Tow15_1</t>
+  </si>
+  <si>
+    <t>Tow16_1</t>
+  </si>
+  <si>
+    <t>Tow17_1</t>
+  </si>
+  <si>
+    <t>Tow18_1</t>
+  </si>
+  <si>
+    <t>Tow19_1</t>
+  </si>
+  <si>
+    <t>Tow20_1</t>
+  </si>
+  <si>
+    <t>Tow21_1</t>
+  </si>
+  <si>
+    <t>Tow22_1</t>
+  </si>
+  <si>
+    <t>Tow23_1</t>
+  </si>
+  <si>
+    <t>Tow24_1</t>
+  </si>
+  <si>
+    <t>TestTow1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTow2_1</t>
+  </si>
+  <si>
+    <t>TestTow3_1</t>
+  </si>
+  <si>
+    <t>TestTow4_1</t>
+  </si>
+  <si>
+    <t>TestTow5_1</t>
+  </si>
+  <si>
+    <t>TestTow6_1</t>
+  </si>
+  <si>
+    <t>TestTow7_1</t>
+  </si>
+  <si>
+    <t>TestTow8_1</t>
+  </si>
+  <si>
+    <t>Zpb1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow10_2</t>
+  </si>
+  <si>
+    <t>Tow10_3</t>
   </si>
 </sst>
 </file>
@@ -636,25 +739,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="29.375" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,7 +794,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,7 +823,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -757,7 +860,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -788,7 +891,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -827,7 +930,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -841,94 +944,94 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
@@ -948,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="E15" s="7"/>
@@ -960,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="E16" s="7"/>
@@ -972,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="E17" s="7"/>
@@ -984,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="E18" s="7"/>
@@ -996,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="E19" s="7"/>
@@ -1008,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="E20" s="7"/>
@@ -1020,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>25</v>
@@ -1029,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>26</v>
       </c>
@@ -1037,7 +1140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1063,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1087,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G29" s="6" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G30" s="6" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>26</v>
       </c>
@@ -1119,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>29</v>
       </c>
@@ -1127,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>31</v>
       </c>
@@ -1143,71 +1246,309 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" ref="D35" si="3">B35&amp;"_"&amp;C35</f>
+      <c r="D36" t="str">
+        <f t="shared" ref="D36:D63" si="3">B36&amp;"_"&amp;C36</f>
         <v>BuyTowerRefreshRule_TutorialFirst</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>BuyTowerRefreshRule_Infinite</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>BuyTowerRefreshRule_Zpb1</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6287BAE-D65E-4066-8FA6-0EEBDC24EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8045C-CD3B-44AB-BD01-7F40DDA6BEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -265,10 +265,6 @@
     <t>BuyTowerRefreshRule_ChallengeLevel15</t>
   </si>
   <si>
-    <t>Tow4_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>（单卡教学）挑战关卡1</t>
   </si>
   <si>
@@ -483,35 +479,92 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tow1_3</t>
-  </si>
-  <si>
-    <t>Tow2_3</t>
-  </si>
-  <si>
-    <t>Tow3_3</t>
-  </si>
-  <si>
-    <t>Tow4_3</t>
-  </si>
-  <si>
-    <t>Tow5_3</t>
-  </si>
-  <si>
-    <t>Tow6_3</t>
-  </si>
-  <si>
-    <t>Tow7_3</t>
-  </si>
-  <si>
-    <t>Tow8_3</t>
-  </si>
-  <si>
     <t>Tow1_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tow7_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tow2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -972,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,13 +1058,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -1044,16 +1097,16 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1087,13 +1140,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1163,19 +1216,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="2"/>
@@ -1198,10 +1251,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -1221,13 +1274,13 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G7" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
         <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
       </c>
       <c r="J7" s="2">
         <v>100</v>
@@ -1235,7 +1288,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
@@ -1249,1222 +1302,209 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>100</v>
-      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>100</v>
-      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>100</v>
-      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+      <c r="E37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
+      <c r="E45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="J58" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
+      <c r="D64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1</v>
-      </c>
-      <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-      <c r="J65" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-      <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-      <c r="I68" s="2">
-        <v>1</v>
-      </c>
-      <c r="J68" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G69" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-      <c r="I69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G71" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
+      <c r="D73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="I73" s="2">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="2">
-        <v>1</v>
-      </c>
-      <c r="I74" s="2">
-        <v>1</v>
-      </c>
-      <c r="J74" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-      <c r="I75" s="2">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" s="2">
-        <v>1</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="2">
-        <v>1</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="2">
-        <v>1</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1</v>
-      </c>
-      <c r="J83" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="2">
-        <v>1</v>
-      </c>
-      <c r="I84" s="2">
-        <v>1</v>
-      </c>
-      <c r="J84" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" s="2">
-        <v>1</v>
-      </c>
-      <c r="I85" s="2">
-        <v>1</v>
-      </c>
-      <c r="J85" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" s="2">
-        <v>1</v>
-      </c>
-      <c r="I86" s="2">
-        <v>1</v>
-      </c>
-      <c r="J86" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" s="2">
-        <v>1</v>
-      </c>
-      <c r="I87" s="2">
-        <v>1</v>
-      </c>
-      <c r="J87" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="2">
-        <v>1</v>
-      </c>
-      <c r="I88" s="2">
-        <v>1</v>
-      </c>
-      <c r="J88" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" s="2">
-        <v>1</v>
-      </c>
-      <c r="I89" s="2">
-        <v>1</v>
-      </c>
-      <c r="J89" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="2">
-        <v>1</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1</v>
-      </c>
-      <c r="J91" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="2">
-        <v>1</v>
-      </c>
-      <c r="I92" s="2">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="2">
-        <v>1</v>
-      </c>
-      <c r="I93" s="2">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" s="2">
-        <v>1</v>
-      </c>
-      <c r="I95" s="2">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-      <c r="I96" s="2">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G97" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1</v>
-      </c>
-      <c r="J97" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G98" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2">
-        <v>1</v>
-      </c>
-      <c r="J98" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>121</v>
+      <c r="G100" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
@@ -2477,8 +1517,8 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G101" s="2" t="s">
-        <v>122</v>
+      <c r="G101" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H101" s="2">
         <v>1</v>
@@ -2492,7 +1532,7 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
@@ -2506,7 +1546,7 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G103" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="H103" s="2">
         <v>1</v>
@@ -2519,8 +1559,8 @@
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G104" s="2" t="s">
-        <v>125</v>
+      <c r="G104" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="H104" s="2">
         <v>1</v>
@@ -2534,7 +1574,7 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H105" s="2">
         <v>1</v>
@@ -2548,7 +1588,7 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G106" s="2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H106" s="2">
         <v>1</v>
@@ -2562,7 +1602,7 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="H107" s="2">
         <v>1</v>
@@ -2576,10 +1616,10 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E109" s="2" t="b">
         <v>0</v>
@@ -2697,10 +1737,10 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E117" s="2" t="b">
         <v>0</v>
@@ -2832,10 +1872,10 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E126" s="2" t="b">
         <v>0</v>
@@ -3009,10 +2049,10 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>1</v>
@@ -3026,7 +2066,7 @@
         <v>45</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E142" s="2" t="b">
         <v>0</v>
@@ -3063,7 +2103,7 @@
         <v>46</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E144" s="2" t="b">
         <v>0</v>
@@ -3100,7 +2140,7 @@
         <v>47</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E146" s="2" t="b">
         <v>0</v>
@@ -3137,7 +2177,7 @@
         <v>48</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E148" s="2" t="b">
         <v>0</v>
@@ -3160,7 +2200,7 @@
         <v>49</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E149" s="2" t="b">
         <v>0</v>
@@ -3183,7 +2223,7 @@
         <v>50</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E150" s="2" t="b">
         <v>0</v>
@@ -3220,7 +2260,7 @@
         <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E152" s="2" t="b">
         <v>0</v>
@@ -3257,7 +2297,7 @@
         <v>52</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E154" s="2" t="b">
         <v>0</v>
@@ -3294,7 +2334,7 @@
         <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -3331,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E158" s="2" t="b">
         <v>0</v>
@@ -3368,7 +2408,7 @@
         <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E160" s="2" t="b">
         <v>0</v>
@@ -3405,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E162" s="2" t="b">
         <v>0</v>
@@ -3442,7 +2482,7 @@
         <v>57</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -3493,7 +2533,7 @@
         <v>58</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E167" s="2" t="b">
         <v>0</v>
@@ -3544,7 +2584,7 @@
         <v>59</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E170" s="2" t="b">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8045C-CD3B-44AB-BD01-7F40DDA6BEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA4D3A4-4882-4F96-B4F8-811833C1758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>##var</t>
   </si>
@@ -506,6 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -560,11 +562,68 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_1</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow5_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow6_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Offline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下版</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1023,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA172"/>
+  <dimension ref="A1:AA182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1250,17 +1309,17 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
+      <c r="B6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1269,168 +1328,611 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G7" s="6" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G8" s="6" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>100</v>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>999</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G15" s="6"/>
-    </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G17" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="6"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="6"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G43" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
+      <c r="E47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G48" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G49" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G52" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
+      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2</v>
+      </c>
+      <c r="J56" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>102</v>
@@ -1442,218 +1944,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
+      <c r="E83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="E92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="6" t="s">
+      <c r="E101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E100" s="2" t="b">
+      <c r="E110" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G110" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H100" s="2">
-        <v>1</v>
-      </c>
-      <c r="I100" s="2">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G101" s="6" t="s">
+      <c r="H110" s="2">
+        <v>1</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1</v>
+      </c>
+      <c r="J110" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G111" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="H101" s="2">
-        <v>1</v>
-      </c>
-      <c r="I101" s="2">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G102" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="2">
-        <v>1</v>
-      </c>
-      <c r="I102" s="2">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="2">
-        <v>1</v>
-      </c>
-      <c r="I103" s="2">
-        <v>1</v>
-      </c>
-      <c r="J103" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G104" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H104" s="2">
-        <v>1</v>
-      </c>
-      <c r="I104" s="2">
-        <v>1</v>
-      </c>
-      <c r="J104" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" s="2">
-        <v>1</v>
-      </c>
-      <c r="I105" s="2">
-        <v>1</v>
-      </c>
-      <c r="J105" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G106" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="2">
-        <v>1</v>
-      </c>
-      <c r="I106" s="2">
-        <v>1</v>
-      </c>
-      <c r="J106" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G107" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="2">
-        <v>1</v>
-      </c>
-      <c r="I107" s="2">
-        <v>1</v>
-      </c>
-      <c r="J107" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="2">
-        <v>1</v>
-      </c>
-      <c r="I109" s="2">
-        <v>1</v>
-      </c>
-      <c r="J109" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="2">
-        <v>1</v>
-      </c>
-      <c r="I110" s="2">
-        <v>1</v>
-      </c>
-      <c r="J110" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G111" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H111" s="2">
         <v>1</v>
@@ -1667,7 +2051,7 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G112" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H112" s="2">
         <v>1</v>
@@ -1681,7 +2065,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G113" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H113" s="2">
         <v>1</v>
@@ -1694,8 +2078,8 @@
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G114" s="2" t="s">
-        <v>17</v>
+      <c r="G114" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
@@ -1709,7 +2093,7 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H115" s="2">
         <v>1</v>
@@ -1723,7 +2107,7 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H116" s="2">
         <v>1</v>
@@ -1736,45 +2120,31 @@
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="G117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E117" s="2" t="b">
+      <c r="E119" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="2">
-        <v>1</v>
-      </c>
-      <c r="I117" s="2">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" s="2">
-        <v>1</v>
-      </c>
-      <c r="I118" s="2">
-        <v>1</v>
-      </c>
-      <c r="J118" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G119" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H119" s="2">
         <v>1</v>
@@ -1788,7 +2158,7 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G120" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H120" s="2">
         <v>1</v>
@@ -1802,7 +2172,7 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G121" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H121" s="2">
         <v>1</v>
@@ -1816,7 +2186,7 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G122" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H122" s="2">
         <v>1</v>
@@ -1830,7 +2200,7 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H123" s="2">
         <v>1</v>
@@ -1844,7 +2214,7 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H124" s="2">
         <v>1</v>
@@ -1858,10 +2228,10 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H125" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I125" s="2">
         <v>1</v>
@@ -1871,31 +2241,31 @@
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="G126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E126" s="2" t="b">
+      <c r="E127" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-      <c r="I126" s="2">
-        <v>1</v>
-      </c>
-      <c r="J126" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G127" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H127" s="2">
         <v>1</v>
@@ -1909,7 +2279,7 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G128" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H128" s="2">
         <v>1</v>
@@ -1923,7 +2293,7 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G129" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H129" s="2">
         <v>1</v>
@@ -1937,7 +2307,7 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G130" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H130" s="2">
         <v>1</v>
@@ -1951,7 +2321,7 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G131" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H131" s="2">
         <v>1</v>
@@ -1965,7 +2335,7 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H132" s="2">
         <v>1</v>
@@ -1979,7 +2349,7 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G133" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H133" s="2">
         <v>1</v>
@@ -1993,7 +2363,7 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H134" s="2">
         <v>1</v>
@@ -2007,10 +2377,10 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H135" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I135" s="2">
         <v>1</v>
@@ -2020,8 +2390,17 @@
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G136" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H136" s="2">
         <v>1</v>
@@ -2035,7 +2414,7 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G137" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H137" s="2">
         <v>1</v>
@@ -2048,31 +2427,64 @@
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F138" s="2">
-        <v>10</v>
+      <c r="G138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="2">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <v>1</v>
+      </c>
+      <c r="J139" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="2">
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
+        <v>1</v>
+      </c>
+      <c r="J140" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E142" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H142" s="2">
         <v>1</v>
@@ -2086,7 +2498,7 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G143" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H143" s="2">
         <v>1</v>
@@ -2099,17 +2511,8 @@
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B144" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E144" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G144" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H144" s="2">
         <v>1</v>
@@ -2123,7 +2526,7 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G145" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H145" s="2">
         <v>1</v>
@@ -2136,17 +2539,8 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E146" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G146" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2">
         <v>1</v>
@@ -2160,7 +2554,7 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G147" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H147" s="2">
         <v>1</v>
@@ -2173,100 +2567,31 @@
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="2" t="s">
-        <v>48</v>
+      <c r="B148" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H148" s="2">
-        <v>1</v>
-      </c>
-      <c r="I148" s="2">
-        <v>1</v>
-      </c>
-      <c r="J148" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H149" s="2">
-        <v>1</v>
-      </c>
-      <c r="I149" s="2">
-        <v>1</v>
-      </c>
-      <c r="J149" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" s="2">
-        <v>1</v>
-      </c>
-      <c r="I150" s="2">
-        <v>1</v>
-      </c>
-      <c r="J150" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G151" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H151" s="2">
-        <v>1</v>
-      </c>
-      <c r="I151" s="2">
-        <v>1</v>
-      </c>
-      <c r="J151" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E152" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H152" s="2">
         <v>1</v>
@@ -2280,7 +2605,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G153" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H153" s="2">
         <v>1</v>
@@ -2294,16 +2619,16 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E154" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H154" s="2">
         <v>1</v>
@@ -2317,7 +2642,7 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G155" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H155" s="2">
         <v>1</v>
@@ -2331,16 +2656,16 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H156" s="2">
         <v>1</v>
@@ -2354,7 +2679,7 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G157" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H157" s="2">
         <v>1</v>
@@ -2368,16 +2693,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E158" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H158" s="2">
         <v>1</v>
@@ -2390,8 +2715,17 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G159" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H159" s="2">
         <v>1</v>
@@ -2405,16 +2739,16 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H160" s="2">
         <v>1</v>
@@ -2428,7 +2762,7 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G161" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H161" s="2">
         <v>1</v>
@@ -2442,16 +2776,16 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E162" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H162" s="2">
         <v>1</v>
@@ -2465,7 +2799,7 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G163" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H163" s="2">
         <v>1</v>
@@ -2479,16 +2813,16 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H164" s="2">
         <v>1</v>
@@ -2502,7 +2836,7 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G165" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H165" s="2">
         <v>1</v>
@@ -2515,8 +2849,17 @@
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E166" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G166" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H166" s="2">
         <v>1</v>
@@ -2529,31 +2872,31 @@
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B167" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E167" s="2" t="b">
+      <c r="G167" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H167" s="2">
+        <v>1</v>
+      </c>
+      <c r="I167" s="2">
+        <v>1</v>
+      </c>
+      <c r="J167" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H167" s="2">
-        <v>1</v>
-      </c>
-      <c r="I167" s="2">
-        <v>1</v>
-      </c>
-      <c r="J167" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G168" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H168" s="2">
         <v>1</v>
@@ -2567,7 +2910,7 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G169" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H169" s="2">
         <v>1</v>
@@ -2581,16 +2924,16 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E170" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H170" s="2">
         <v>1</v>
@@ -2604,29 +2947,205 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H171" s="2">
+        <v>1</v>
+      </c>
+      <c r="I171" s="2">
+        <v>1</v>
+      </c>
+      <c r="J171" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" s="2">
+        <v>1</v>
+      </c>
+      <c r="I173" s="2">
+        <v>1</v>
+      </c>
+      <c r="J173" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H174" s="2">
+        <v>1</v>
+      </c>
+      <c r="I174" s="2">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G175" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H171" s="2">
-        <v>1</v>
-      </c>
-      <c r="I171" s="2">
-        <v>1</v>
-      </c>
-      <c r="J171" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G172" s="2" t="s">
+      <c r="H175" s="2">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2">
+        <v>1</v>
+      </c>
+      <c r="J175" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G176" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H172" s="2">
-        <v>1</v>
-      </c>
-      <c r="I172" s="2">
-        <v>1</v>
-      </c>
-      <c r="J172" s="2">
+      <c r="H176" s="2">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2">
+        <v>1</v>
+      </c>
+      <c r="J176" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2">
+        <v>1</v>
+      </c>
+      <c r="J177" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2">
+        <v>1</v>
+      </c>
+      <c r="J178" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2">
+        <v>1</v>
+      </c>
+      <c r="J179" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B180" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1</v>
+      </c>
+      <c r="I180" s="2">
+        <v>1</v>
+      </c>
+      <c r="J180" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G181" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1</v>
+      </c>
+      <c r="I181" s="2">
+        <v>1</v>
+      </c>
+      <c r="J181" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1</v>
+      </c>
+      <c r="I182" s="2">
+        <v>1</v>
+      </c>
+      <c r="J182" s="2">
         <v>100</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA4D3A4-4882-4F96-B4F8-811833C1758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831908C5-F6EB-4E2D-9083-866E02A786EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
   <si>
     <t>##var</t>
   </si>
@@ -432,10 +432,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Zpb1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>自身拥有卡的单卡权重</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -476,118 +472,6 @@
   </si>
   <si>
     <t>BuyTowerRefreshRule_Infinite_Debug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow1_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow7_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Tow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Tow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Tow2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow2_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow3_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow5_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow6_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow4_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -624,6 +508,41 @@
   </si>
   <si>
     <t>线下版</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式-新手版</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_FirstInfinite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Zpb1</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>Tow10_1</t>
+  </si>
+  <si>
+    <t>Tow10_2</t>
+  </si>
+  <si>
+    <t>Tow10_3</t>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用卡组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Common</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1082,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA182"/>
+  <dimension ref="A1:AA192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1042,7 @@
         <v>103</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -1156,16 +1075,16 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1205,7 +1124,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1278,16 +1197,16 @@
         <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="2"/>
@@ -1313,27 +1232,31 @@
         <v>131</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1347,7 +1270,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1361,7 +1284,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1375,7 +1298,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1389,7 +1312,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1403,7 +1326,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1417,7 +1340,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1430,56 +1353,67 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G14" s="6"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="2" t="b">
+      <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G18" s="6"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G22" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G24" s="6"/>
+      <c r="E21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G23" s="6"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G25" s="6"/>
@@ -1490,32 +1424,21 @@
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G27" s="6"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="2" t="b">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1524,49 +1447,68 @@
         <v>2</v>
       </c>
       <c r="J30" s="2">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G31" s="6" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>100</v>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>999</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -1575,381 +1517,163 @@
         <v>2</v>
       </c>
       <c r="J35" s="2">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" s="2">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G37" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2">
-        <v>100</v>
-      </c>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G41" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2</v>
-      </c>
-      <c r="J41" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G42" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>3</v>
-      </c>
-      <c r="J42" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G43" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>3</v>
-      </c>
-      <c r="J43" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G44" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>3</v>
-      </c>
-      <c r="J44" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G45" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>3</v>
-      </c>
-      <c r="J45" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="6" t="s">
+      <c r="E50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>2</v>
-      </c>
-      <c r="J48" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G49" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>2</v>
-      </c>
-      <c r="J49" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>2</v>
-      </c>
-      <c r="J50" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G51" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>2</v>
-      </c>
-      <c r="J51" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G52" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>2</v>
-      </c>
-      <c r="J52" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="6" t="s">
+      <c r="E57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>2</v>
-      </c>
-      <c r="J56" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>2</v>
-      </c>
-      <c r="J57" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G58" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
-        <v>2</v>
-      </c>
-      <c r="J58" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G59" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>2</v>
-      </c>
-      <c r="J59" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G60" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>2</v>
-      </c>
-      <c r="J60" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G61" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2">
-        <v>2</v>
-      </c>
-      <c r="J61" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G62" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>2</v>
-      </c>
-      <c r="J62" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
+      <c r="E65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="6"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="6"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>102</v>
@@ -1961,339 +1685,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="6" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="6" t="s">
+      <c r="E93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="6" t="s">
+      <c r="E102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="6" t="s">
+      <c r="E111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E110" s="2" t="b">
+      <c r="C120" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H110" s="2">
-        <v>1</v>
-      </c>
-      <c r="I110" s="2">
-        <v>1</v>
-      </c>
-      <c r="J110" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G111" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="2">
-        <v>1</v>
-      </c>
-      <c r="J111" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G112" s="2" t="s">
+      <c r="G120" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G122" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="2">
-        <v>1</v>
-      </c>
-      <c r="J112" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G113" s="2" t="s">
+      <c r="H122" s="2">
+        <v>1</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G123" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="2">
-        <v>1</v>
-      </c>
-      <c r="J113" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G114" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="2">
-        <v>1</v>
-      </c>
-      <c r="J114" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G115" s="2" t="s">
+      <c r="H123" s="2">
+        <v>1</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G124" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G125" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="2">
-        <v>1</v>
-      </c>
-      <c r="J115" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G116" s="2" t="s">
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G126" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="2">
-        <v>1</v>
-      </c>
-      <c r="J116" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G117" s="2" t="s">
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G127" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H117" s="2">
-        <v>1</v>
-      </c>
-      <c r="I117" s="2">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="2" t="s">
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E119" s="2" t="b">
+      <c r="E129" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H119" s="2">
-        <v>1</v>
-      </c>
-      <c r="I119" s="2">
-        <v>1</v>
-      </c>
-      <c r="J119" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="2">
-        <v>1</v>
-      </c>
-      <c r="I120" s="2">
-        <v>1</v>
-      </c>
-      <c r="J120" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="2">
-        <v>1</v>
-      </c>
-      <c r="I121" s="2">
-        <v>1</v>
-      </c>
-      <c r="J121" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="2">
-        <v>1</v>
-      </c>
-      <c r="I122" s="2">
-        <v>1</v>
-      </c>
-      <c r="J122" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="2">
-        <v>1</v>
-      </c>
-      <c r="I123" s="2">
-        <v>1</v>
-      </c>
-      <c r="J123" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="2">
-        <v>1</v>
-      </c>
-      <c r="I124" s="2">
-        <v>1</v>
-      </c>
-      <c r="J124" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" s="2">
-        <v>1</v>
-      </c>
-      <c r="I125" s="2">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-      <c r="I126" s="2">
-        <v>1</v>
-      </c>
-      <c r="J126" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-      <c r="I127" s="2">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G128" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H128" s="2">
-        <v>1</v>
-      </c>
-      <c r="I128" s="2">
-        <v>1</v>
-      </c>
-      <c r="J128" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G129" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H129" s="2">
         <v>1</v>
@@ -2307,7 +1899,7 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G130" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H130" s="2">
         <v>1</v>
@@ -2321,7 +1913,7 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G131" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H131" s="2">
         <v>1</v>
@@ -2335,7 +1927,7 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G132" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H132" s="2">
         <v>1</v>
@@ -2349,7 +1941,7 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H133" s="2">
         <v>1</v>
@@ -2363,7 +1955,7 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G134" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H134" s="2">
         <v>1</v>
@@ -2377,10 +1969,10 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H135" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I135" s="2">
         <v>1</v>
@@ -2390,31 +1982,31 @@
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="G136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="2">
+        <v>1</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1</v>
+      </c>
+      <c r="J136" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E136" s="2" t="b">
+      <c r="E137" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H136" s="2">
-        <v>1</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1</v>
-      </c>
-      <c r="J136" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G137" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H137" s="2">
         <v>1</v>
@@ -2428,7 +2020,7 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H138" s="2">
         <v>1</v>
@@ -2442,7 +2034,7 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G139" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H139" s="2">
         <v>1</v>
@@ -2456,7 +2048,7 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G140" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H140" s="2">
         <v>1</v>
@@ -2470,7 +2062,7 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G141" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H141" s="2">
         <v>1</v>
@@ -2484,7 +2076,7 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H142" s="2">
         <v>1</v>
@@ -2498,7 +2090,7 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G143" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H143" s="2">
         <v>1</v>
@@ -2512,7 +2104,7 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H144" s="2">
         <v>1</v>
@@ -2526,10 +2118,10 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H145" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I145" s="2">
         <v>1</v>
@@ -2539,8 +2131,17 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E146" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G146" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H146" s="2">
         <v>1</v>
@@ -2554,7 +2155,7 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G147" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H147" s="2">
         <v>1</v>
@@ -2567,31 +2168,64 @@
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F148" s="2">
-        <v>10</v>
+      <c r="G148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="2">
+        <v>1</v>
+      </c>
+      <c r="I148" s="2">
+        <v>1</v>
+      </c>
+      <c r="J148" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G149" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1</v>
+      </c>
+      <c r="I149" s="2">
+        <v>1</v>
+      </c>
+      <c r="J149" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" s="2">
+        <v>1</v>
+      </c>
+      <c r="I150" s="2">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
+      <c r="J151" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E152" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G152" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H152" s="2">
         <v>1</v>
@@ -2605,7 +2239,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G153" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H153" s="2">
         <v>1</v>
@@ -2618,17 +2252,8 @@
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E154" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G154" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H154" s="2">
         <v>1</v>
@@ -2642,7 +2267,7 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G155" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H155" s="2">
         <v>1</v>
@@ -2655,17 +2280,8 @@
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E156" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G156" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H156" s="2">
         <v>1</v>
@@ -2679,7 +2295,7 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G157" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H157" s="2">
         <v>1</v>
@@ -2692,17 +2308,20 @@
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="2" t="s">
-        <v>48</v>
+      <c r="B158" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E158" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F158" s="2">
+        <v>10</v>
+      </c>
       <c r="G158" s="2" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="H158" s="2">
         <v>1</v>
@@ -2715,17 +2334,8 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E159" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="H159" s="2">
         <v>1</v>
@@ -2738,17 +2348,8 @@
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E160" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="H160" s="2">
         <v>1</v>
@@ -2757,35 +2358,21 @@
         <v>1</v>
       </c>
       <c r="J160" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G161" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H161" s="2">
-        <v>1</v>
-      </c>
-      <c r="I161" s="2">
-        <v>1</v>
-      </c>
-      <c r="J161" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E162" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H162" s="2">
         <v>1</v>
@@ -2799,7 +2386,7 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G163" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H163" s="2">
         <v>1</v>
@@ -2813,16 +2400,16 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H164" s="2">
         <v>1</v>
@@ -2836,7 +2423,7 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G165" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H165" s="2">
         <v>1</v>
@@ -2850,16 +2437,16 @@
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E166" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H166" s="2">
         <v>1</v>
@@ -2873,7 +2460,7 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G167" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H167" s="2">
         <v>1</v>
@@ -2887,16 +2474,16 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E168" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H168" s="2">
         <v>1</v>
@@ -2909,8 +2496,17 @@
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G169" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H169" s="2">
         <v>1</v>
@@ -2924,16 +2520,16 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E170" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H170" s="2">
         <v>1</v>
@@ -2947,7 +2543,7 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G171" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H171" s="2">
         <v>1</v>
@@ -2961,16 +2557,16 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E172" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H172" s="2">
         <v>1</v>
@@ -2984,7 +2580,7 @@
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G173" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H173" s="2">
         <v>1</v>
@@ -2998,16 +2594,16 @@
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E174" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H174" s="2">
         <v>1</v>
@@ -3021,7 +2617,7 @@
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G175" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H175" s="2">
         <v>1</v>
@@ -3034,8 +2630,17 @@
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E176" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G176" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H176" s="2">
         <v>1</v>
@@ -3048,31 +2653,31 @@
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B177" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E177" s="2" t="b">
+      <c r="G177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2">
+        <v>1</v>
+      </c>
+      <c r="J177" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H177" s="2">
-        <v>1</v>
-      </c>
-      <c r="I177" s="2">
-        <v>1</v>
-      </c>
-      <c r="J177" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G178" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H178" s="2">
         <v>1</v>
@@ -3086,7 +2691,7 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G179" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H179" s="2">
         <v>1</v>
@@ -3100,16 +2705,16 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H180" s="2">
         <v>1</v>
@@ -3123,29 +2728,205 @@
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G181" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1</v>
+      </c>
+      <c r="I181" s="2">
+        <v>1</v>
+      </c>
+      <c r="J181" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B182" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1</v>
+      </c>
+      <c r="I182" s="2">
+        <v>1</v>
+      </c>
+      <c r="J182" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1</v>
+      </c>
+      <c r="I183" s="2">
+        <v>1</v>
+      </c>
+      <c r="J183" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B184" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2">
+        <v>1</v>
+      </c>
+      <c r="J184" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G185" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H181" s="2">
-        <v>1</v>
-      </c>
-      <c r="I181" s="2">
-        <v>1</v>
-      </c>
-      <c r="J181" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G182" s="2" t="s">
+      <c r="H185" s="2">
+        <v>1</v>
+      </c>
+      <c r="I185" s="2">
+        <v>1</v>
+      </c>
+      <c r="J185" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G186" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H182" s="2">
-        <v>1</v>
-      </c>
-      <c r="I182" s="2">
-        <v>1</v>
-      </c>
-      <c r="J182" s="2">
+      <c r="H186" s="2">
+        <v>1</v>
+      </c>
+      <c r="I186" s="2">
+        <v>1</v>
+      </c>
+      <c r="J186" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" s="2">
+        <v>1</v>
+      </c>
+      <c r="I187" s="2">
+        <v>1</v>
+      </c>
+      <c r="J187" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1</v>
+      </c>
+      <c r="I188" s="2">
+        <v>1</v>
+      </c>
+      <c r="J188" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="2">
+        <v>1</v>
+      </c>
+      <c r="I189" s="2">
+        <v>1</v>
+      </c>
+      <c r="J189" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B190" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1</v>
+      </c>
+      <c r="I190" s="2">
+        <v>1</v>
+      </c>
+      <c r="J190" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G191" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H191" s="2">
+        <v>1</v>
+      </c>
+      <c r="I191" s="2">
+        <v>1</v>
+      </c>
+      <c r="J191" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1</v>
+      </c>
+      <c r="I192" s="2">
+        <v>1</v>
+      </c>
+      <c r="J192" s="2">
         <v>100</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831908C5-F6EB-4E2D-9083-866E02A786EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3CA869-D142-424C-8B1C-9E680CD4247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
   <si>
     <t>##var</t>
   </si>
@@ -167,18 +180,6 @@
   </si>
   <si>
     <t>Tow8_1</t>
-  </si>
-  <si>
-    <t>TowCallMonster_1</t>
-  </si>
-  <si>
-    <t>TowCallMonster_2</t>
-  </si>
-  <si>
-    <t>TowCallMonster_3</t>
-  </si>
-  <si>
-    <t>TowCallMonster_4</t>
   </si>
   <si>
     <t>无限模式</t>
@@ -543,6 +544,35 @@
   </si>
   <si>
     <t>BuyTowerRefreshRule_Common</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TowCallMonster_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>999</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,10 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA192"/>
+  <dimension ref="A1:AA195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,13 +1069,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -1075,16 +1108,16 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1118,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1194,19 +1227,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="2"/>
@@ -1229,13 +1262,13 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>1</v>
@@ -1247,10 +1280,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -1371,16 +1404,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1393,27 +1426,67 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G25" s="6"/>
@@ -1427,175 +1500,128 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G28" s="6"/>
     </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="6"/>
+    </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>999</v>
-      </c>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2">
-        <v>999</v>
-      </c>
+      <c r="G31" s="6"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2">
-        <v>999</v>
-      </c>
+      <c r="B33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>2</v>
-      </c>
-      <c r="J34" s="2">
-        <v>999</v>
-      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>2</v>
-      </c>
-      <c r="J35" s="2">
-        <v>999</v>
-      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2">
-        <v>999</v>
-      </c>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2">
-        <v>999</v>
-      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G41" s="6"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G46" s="6"/>
     </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G47" s="6"/>
+    </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>1</v>
@@ -1611,500 +1637,462 @@
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G52" s="6"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G55" s="6"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G59" s="6"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G62" s="6"/>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G67" s="6"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G70" s="6"/>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="6"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G72" s="6"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="6" t="s">
+      <c r="D99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="6" t="s">
+      <c r="D108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="6" t="s">
+      <c r="D117" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E120" s="2" t="b">
+      <c r="E117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H120" s="2">
-        <v>1</v>
-      </c>
-      <c r="I120" s="2">
-        <v>1</v>
-      </c>
-      <c r="J120" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G121" s="6" t="s">
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>100</v>
+      </c>
+      <c r="K126" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G127" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H121" s="2">
-        <v>1</v>
-      </c>
-      <c r="I121" s="2">
-        <v>1</v>
-      </c>
-      <c r="J121" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G122" s="6" t="s">
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2">
+        <v>100</v>
+      </c>
+      <c r="K127" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G128" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="2">
-        <v>1</v>
-      </c>
-      <c r="I122" s="2">
-        <v>1</v>
-      </c>
-      <c r="J122" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G123" s="6" t="s">
+      <c r="H128" s="2">
+        <v>1</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2">
+        <v>100</v>
+      </c>
+      <c r="K128" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G129" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H123" s="2">
-        <v>1</v>
-      </c>
-      <c r="I123" s="2">
-        <v>1</v>
-      </c>
-      <c r="J123" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G124" s="6" t="s">
+      <c r="H129" s="2">
+        <v>1</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2">
+        <v>100</v>
+      </c>
+      <c r="K129" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G130" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H124" s="2">
-        <v>1</v>
-      </c>
-      <c r="I124" s="2">
-        <v>1</v>
-      </c>
-      <c r="J124" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G125" s="6" t="s">
+      <c r="H130" s="2">
+        <v>1</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2">
+        <v>100</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G131" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H125" s="2">
-        <v>1</v>
-      </c>
-      <c r="I125" s="2">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G126" s="6" t="s">
+      <c r="H131" s="2">
+        <v>1</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>100</v>
+      </c>
+      <c r="K131" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G132" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-      <c r="I126" s="2">
-        <v>1</v>
-      </c>
-      <c r="J126" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G127" s="6" t="s">
+      <c r="H132" s="2">
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2">
+        <v>100</v>
+      </c>
+      <c r="K132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G133" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-      <c r="I127" s="2">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B129" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C129" s="2" t="s">
+      <c r="H133" s="2">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2">
+        <v>100</v>
+      </c>
+      <c r="K133" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E129" s="2" t="b">
+      <c r="C135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E135" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="2">
-        <v>1</v>
-      </c>
-      <c r="I129" s="2">
-        <v>1</v>
-      </c>
-      <c r="J129" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G130" s="2" t="s">
+      <c r="H135" s="2">
+        <v>1</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1</v>
+      </c>
+      <c r="J135" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="2">
-        <v>1</v>
-      </c>
-      <c r="I130" s="2">
-        <v>1</v>
-      </c>
-      <c r="J130" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G131" s="2" t="s">
+      <c r="H136" s="2">
+        <v>1</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1</v>
+      </c>
+      <c r="J136" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G137" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="2">
-        <v>1</v>
-      </c>
-      <c r="I131" s="2">
-        <v>1</v>
-      </c>
-      <c r="J131" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G132" s="2" t="s">
+      <c r="H137" s="2">
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <v>1</v>
+      </c>
+      <c r="J137" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G138" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="2">
-        <v>1</v>
-      </c>
-      <c r="I132" s="2">
-        <v>1</v>
-      </c>
-      <c r="J132" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G133" s="2" t="s">
+      <c r="H138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H133" s="2">
-        <v>1</v>
-      </c>
-      <c r="I133" s="2">
-        <v>1</v>
-      </c>
-      <c r="J133" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G134" s="2" t="s">
+      <c r="H139" s="2">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <v>1</v>
+      </c>
+      <c r="J139" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G140" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H134" s="2">
-        <v>1</v>
-      </c>
-      <c r="I134" s="2">
-        <v>1</v>
-      </c>
-      <c r="J134" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G135" s="2" t="s">
+      <c r="H140" s="2">
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
+        <v>1</v>
+      </c>
+      <c r="J140" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G141" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="2">
-        <v>1</v>
-      </c>
-      <c r="I135" s="2">
-        <v>1</v>
-      </c>
-      <c r="J135" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G136" s="2" t="s">
+      <c r="H141" s="2">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G142" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H136" s="2">
-        <v>1</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1</v>
-      </c>
-      <c r="J136" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B137" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E137" s="2" t="b">
+      <c r="H142" s="2">
+        <v>1</v>
+      </c>
+      <c r="I142" s="2">
+        <v>1</v>
+      </c>
+      <c r="J142" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E143" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="2">
-        <v>1</v>
-      </c>
-      <c r="I137" s="2">
-        <v>1</v>
-      </c>
-      <c r="J137" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G138" s="2" t="s">
+      <c r="H143" s="2">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G144" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H138" s="2">
-        <v>1</v>
-      </c>
-      <c r="I138" s="2">
-        <v>1</v>
-      </c>
-      <c r="J138" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G139" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="2">
-        <v>1</v>
-      </c>
-      <c r="I139" s="2">
-        <v>1</v>
-      </c>
-      <c r="J139" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G140" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H140" s="2">
-        <v>1</v>
-      </c>
-      <c r="I140" s="2">
-        <v>1</v>
-      </c>
-      <c r="J140" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H141" s="2">
-        <v>1</v>
-      </c>
-      <c r="I141" s="2">
-        <v>1</v>
-      </c>
-      <c r="J141" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G142" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" s="2">
-        <v>1</v>
-      </c>
-      <c r="I142" s="2">
-        <v>1</v>
-      </c>
-      <c r="J142" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G143" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H143" s="2">
-        <v>1</v>
-      </c>
-      <c r="I143" s="2">
-        <v>1</v>
-      </c>
-      <c r="J143" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G144" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H144" s="2">
         <v>1</v>
@@ -2118,10 +2106,10 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H145" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I145" s="2">
         <v>1</v>
@@ -2131,17 +2119,8 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E146" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G146" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H146" s="2">
         <v>1</v>
@@ -2155,7 +2134,7 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G147" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H147" s="2">
         <v>1</v>
@@ -2169,7 +2148,7 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G148" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H148" s="2">
         <v>1</v>
@@ -2183,7 +2162,7 @@
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G149" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H149" s="2">
         <v>1</v>
@@ -2197,7 +2176,7 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G150" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H150" s="2">
         <v>1</v>
@@ -2210,11 +2189,11 @@
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G151" s="2" t="s">
-        <v>25</v>
+      <c r="G151" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H151" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I151" s="2">
         <v>1</v>
@@ -2224,8 +2203,17 @@
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E152" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G152" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H152" s="2">
         <v>1</v>
@@ -2239,7 +2227,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G153" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H153" s="2">
         <v>1</v>
@@ -2253,7 +2241,7 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G154" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H154" s="2">
         <v>1</v>
@@ -2267,7 +2255,7 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G155" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H155" s="2">
         <v>1</v>
@@ -2281,7 +2269,7 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H156" s="2">
         <v>1</v>
@@ -2295,7 +2283,7 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G157" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H157" s="2">
         <v>1</v>
@@ -2308,20 +2296,8 @@
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F158" s="2">
-        <v>10</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H158" s="2">
         <v>1</v>
@@ -2335,7 +2311,7 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G159" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="H159" s="2">
         <v>1</v>
@@ -2348,8 +2324,8 @@
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G160" s="2" t="s">
-        <v>128</v>
+      <c r="G160" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H160" s="2">
         <v>1</v>
@@ -2361,18 +2337,35 @@
         <v>100</v>
       </c>
     </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" s="2">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H161" s="2">
+        <v>1</v>
+      </c>
+      <c r="I161" s="2">
+        <v>1</v>
+      </c>
+      <c r="J161" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B162" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E162" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H162" s="2">
         <v>1</v>
@@ -2386,7 +2379,7 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G163" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="H163" s="2">
         <v>1</v>
@@ -2398,70 +2391,56 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B164" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E164" s="2" t="b">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E165" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="2">
+        <v>1</v>
+      </c>
+      <c r="I165" s="2">
+        <v>1</v>
+      </c>
+      <c r="J165" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G166" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H166" s="2">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2">
+        <v>1</v>
+      </c>
+      <c r="J166" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H164" s="2">
-        <v>1</v>
-      </c>
-      <c r="I164" s="2">
-        <v>1</v>
-      </c>
-      <c r="J164" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G165" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H165" s="2">
-        <v>1</v>
-      </c>
-      <c r="I165" s="2">
-        <v>1</v>
-      </c>
-      <c r="J165" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B166" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H166" s="2">
-        <v>1</v>
-      </c>
-      <c r="I166" s="2">
-        <v>1</v>
-      </c>
-      <c r="J166" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G167" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H167" s="2">
         <v>1</v>
       </c>
@@ -2473,15 +2452,6 @@
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B168" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E168" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="G168" s="2" t="s">
         <v>37</v>
       </c>
@@ -2497,16 +2467,16 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E169" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H169" s="2">
         <v>1</v>
@@ -2519,31 +2489,31 @@
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B170" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E170" s="2" t="b">
+      <c r="G170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" s="2">
+        <v>1</v>
+      </c>
+      <c r="I170" s="2">
+        <v>1</v>
+      </c>
+      <c r="J170" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E171" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H170" s="2">
-        <v>1</v>
-      </c>
-      <c r="I170" s="2">
-        <v>1</v>
-      </c>
-      <c r="J170" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G171" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H171" s="2">
         <v>1</v>
@@ -2557,252 +2527,261 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E172" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G172" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" s="2">
+        <v>1</v>
+      </c>
+      <c r="I173" s="2">
+        <v>1</v>
+      </c>
+      <c r="J173" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G174" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H174" s="2">
+        <v>1</v>
+      </c>
+      <c r="I174" s="2">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H172" s="2">
-        <v>1</v>
-      </c>
-      <c r="I172" s="2">
-        <v>1</v>
-      </c>
-      <c r="J172" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G173" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H173" s="2">
-        <v>1</v>
-      </c>
-      <c r="I173" s="2">
-        <v>1</v>
-      </c>
-      <c r="J173" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B174" s="2" t="s">
+      <c r="H175" s="2">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2">
+        <v>1</v>
+      </c>
+      <c r="J175" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2">
+        <v>1</v>
+      </c>
+      <c r="J176" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2">
+        <v>1</v>
+      </c>
+      <c r="J177" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2">
+        <v>1</v>
+      </c>
+      <c r="J178" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B179" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2">
+        <v>1</v>
+      </c>
+      <c r="J179" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G180" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1</v>
+      </c>
+      <c r="I180" s="2">
+        <v>1</v>
+      </c>
+      <c r="J180" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1</v>
+      </c>
+      <c r="I181" s="2">
+        <v>1</v>
+      </c>
+      <c r="J181" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1</v>
+      </c>
+      <c r="I182" s="2">
+        <v>1</v>
+      </c>
+      <c r="J182" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B183" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1</v>
+      </c>
+      <c r="I183" s="2">
+        <v>1</v>
+      </c>
+      <c r="J183" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G184" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2">
+        <v>1</v>
+      </c>
+      <c r="J184" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B185" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E174" s="2" t="b">
+      <c r="E185" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H174" s="2">
-        <v>1</v>
-      </c>
-      <c r="I174" s="2">
-        <v>1</v>
-      </c>
-      <c r="J174" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" s="2">
-        <v>1</v>
-      </c>
-      <c r="I175" s="2">
-        <v>1</v>
-      </c>
-      <c r="J175" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B176" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H176" s="2">
-        <v>1</v>
-      </c>
-      <c r="I176" s="2">
-        <v>1</v>
-      </c>
-      <c r="J176" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G177" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H177" s="2">
-        <v>1</v>
-      </c>
-      <c r="I177" s="2">
-        <v>1</v>
-      </c>
-      <c r="J177" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B178" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="G185" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H178" s="2">
-        <v>1</v>
-      </c>
-      <c r="I178" s="2">
-        <v>1</v>
-      </c>
-      <c r="J178" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G179" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H179" s="2">
-        <v>1</v>
-      </c>
-      <c r="I179" s="2">
-        <v>1</v>
-      </c>
-      <c r="J179" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B180" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H180" s="2">
-        <v>1</v>
-      </c>
-      <c r="I180" s="2">
-        <v>1</v>
-      </c>
-      <c r="J180" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G181" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H181" s="2">
-        <v>1</v>
-      </c>
-      <c r="I181" s="2">
-        <v>1</v>
-      </c>
-      <c r="J181" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B182" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H182" s="2">
-        <v>1</v>
-      </c>
-      <c r="I182" s="2">
-        <v>1</v>
-      </c>
-      <c r="J182" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G183" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H183" s="2">
-        <v>1</v>
-      </c>
-      <c r="I183" s="2">
-        <v>1</v>
-      </c>
-      <c r="J183" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B184" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H184" s="2">
-        <v>1</v>
-      </c>
-      <c r="I184" s="2">
-        <v>1</v>
-      </c>
-      <c r="J184" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G185" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H185" s="2">
         <v>1</v>
@@ -2816,7 +2795,7 @@
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G186" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H186" s="2">
         <v>1</v>
@@ -2830,16 +2809,16 @@
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B187" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E187" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H187" s="2">
         <v>1</v>
@@ -2853,7 +2832,7 @@
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G188" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H188" s="2">
         <v>1</v>
@@ -2867,7 +2846,7 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G189" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H189" s="2">
         <v>1</v>
@@ -2881,16 +2860,16 @@
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E190" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H190" s="2">
         <v>1</v>
@@ -2904,7 +2883,7 @@
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G191" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H191" s="2">
         <v>1</v>
@@ -2918,7 +2897,7 @@
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G192" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H192" s="2">
         <v>1</v>
@@ -2927,6 +2906,57 @@
         <v>1</v>
       </c>
       <c r="J192" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1</v>
+      </c>
+      <c r="I193" s="2">
+        <v>1</v>
+      </c>
+      <c r="J193" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G194" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1</v>
+      </c>
+      <c r="I194" s="2">
+        <v>1</v>
+      </c>
+      <c r="J194" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G195" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1</v>
+      </c>
+      <c r="I195" s="2">
+        <v>1</v>
+      </c>
+      <c r="J195" s="2">
         <v>100</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8E5DBD-E406-4851-A9B4-BD243AA05578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF336D-923A-4FAB-96CE-48B0FC970664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,32 +231,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>BuyTowerRefreshRule_Challenge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战关卡2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Tow1_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tow5_1</t>
+    <t>Tow4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +708,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1139,22 +1126,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>999</v>
@@ -1190,13 +1177,13 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <v>999</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF336D-923A-4FAB-96CE-48B0FC970664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A83EA4-ED5E-4570-9B3C-5785152616EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -244,6 +244,66 @@
   </si>
   <si>
     <t>挑战关卡3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo_Tow1_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow2_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow3_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow4_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow5_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow6_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow7_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow8_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow9_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow10_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow11_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow17_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow21_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow23_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow25_1</t>
+  </si>
+  <si>
+    <t>Demo_Tow26_1</t>
+  </si>
+  <si>
+    <t>演示关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Collider_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -702,31 +762,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +829,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +868,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -851,7 +911,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,7 +944,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,7 +991,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
@@ -947,9 +1007,20 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
@@ -972,7 +1043,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1057,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1071,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1085,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1099,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1113,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1127,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1070,10 +1141,10 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G15" s="6"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1096,7 +1167,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1181,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1195,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1218,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1232,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1175,7 +1246,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1186,6 +1257,239 @@
         <v>2</v>
       </c>
       <c r="J24" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
         <v>999</v>
       </c>
     </row>
